--- a/Sprint 2/Sprint2 GUI/Datenbank Schraube.xlsx
+++ b/Sprint 2/Sprint2 GUI/Datenbank Schraube.xlsx
@@ -23,9 +23,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Sechskantschraube</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +53,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,14 +114,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
+    <cellStyle name="40 % - Akzent3" xfId="4" builtinId="39"/>
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +429,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11.05</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17.77</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20.03</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26.75</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.53</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2">
+        <v>61.31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>